--- a/Code/Results/Cases/Case_5_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.48023438583529</v>
+        <v>10.18201399862603</v>
       </c>
       <c r="C2">
-        <v>6.643798747138783</v>
+        <v>4.3408564290895</v>
       </c>
       <c r="D2">
-        <v>6.266519155360391</v>
+        <v>8.631474025476173</v>
       </c>
       <c r="E2">
-        <v>9.164667568727628</v>
+        <v>13.63263849530772</v>
       </c>
       <c r="F2">
-        <v>25.16767714779262</v>
+        <v>36.21285343707817</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.139945373440724</v>
+        <v>10.32451255953212</v>
       </c>
       <c r="K2">
-        <v>11.01623659011831</v>
+        <v>9.564593265398411</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.90190364119377</v>
+        <v>15.0264000258118</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.42402929797673</v>
+        <v>27.63659263531565</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.66334240579971</v>
+        <v>9.943804821937418</v>
       </c>
       <c r="C3">
-        <v>6.362172229332698</v>
+        <v>4.194357348631359</v>
       </c>
       <c r="D3">
-        <v>6.007161498835099</v>
+        <v>8.59990821162177</v>
       </c>
       <c r="E3">
-        <v>8.954530643414952</v>
+        <v>13.62914680221794</v>
       </c>
       <c r="F3">
-        <v>24.96919026071974</v>
+        <v>36.28459783135221</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.148531247370332</v>
+        <v>10.34531993874208</v>
       </c>
       <c r="K3">
-        <v>10.39299231659387</v>
+        <v>9.407726021104821</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.44264825162878</v>
+        <v>14.96942325103575</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.45780495396257</v>
+        <v>27.71900279472625</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.13270544821367</v>
+        <v>9.79648155703935</v>
       </c>
       <c r="C4">
-        <v>6.18258059712702</v>
+        <v>4.101062199758081</v>
       </c>
       <c r="D4">
-        <v>5.844535169207251</v>
+        <v>8.581810633105521</v>
       </c>
       <c r="E4">
-        <v>8.82783326789016</v>
+        <v>13.62927148237973</v>
       </c>
       <c r="F4">
-        <v>24.86644736257032</v>
+        <v>36.33633611243476</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.156364042249074</v>
+        <v>10.35926522512722</v>
       </c>
       <c r="K4">
-        <v>9.99069144694645</v>
+        <v>9.311584336855459</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.15440192382216</v>
+        <v>14.93664562874706</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.49253157694473</v>
+        <v>27.77486253062047</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.90913043300519</v>
+        <v>9.736269120299125</v>
       </c>
       <c r="C5">
-        <v>6.107776699909959</v>
+        <v>4.062240146958568</v>
       </c>
       <c r="D5">
-        <v>5.777509815281085</v>
+        <v>8.574763920545768</v>
       </c>
       <c r="E5">
-        <v>8.77684618947824</v>
+        <v>13.62989428276139</v>
       </c>
       <c r="F5">
-        <v>24.82927965099248</v>
+        <v>36.35934970794551</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.160185748661863</v>
+        <v>10.36524240525651</v>
       </c>
       <c r="K5">
-        <v>9.821864110250452</v>
+        <v>9.272498714816161</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.03553073028199</v>
+        <v>14.92385294399508</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.51006833114027</v>
+        <v>27.79894645412401</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.87156215112751</v>
+        <v>9.72626289611234</v>
       </c>
       <c r="C6">
-        <v>6.095259704244036</v>
+        <v>4.055746414388293</v>
       </c>
       <c r="D6">
-        <v>5.766337810164411</v>
+        <v>8.573613790983476</v>
       </c>
       <c r="E6">
-        <v>8.768420355813419</v>
+        <v>13.63003228520347</v>
       </c>
       <c r="F6">
-        <v>24.82338851715072</v>
+        <v>36.36328755531137</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.160857965662505</v>
+        <v>10.3662526986388</v>
       </c>
       <c r="K6">
-        <v>9.793537074493619</v>
+        <v>9.266015621596258</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.01571245273605</v>
+        <v>14.92176309133654</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.51318092917005</v>
+        <v>27.80302527584571</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.12971997540998</v>
+        <v>9.795670106359005</v>
       </c>
       <c r="C7">
-        <v>6.181578235480258</v>
+        <v>4.10054183309964</v>
       </c>
       <c r="D7">
-        <v>5.84363415861432</v>
+        <v>8.581714263008626</v>
       </c>
       <c r="E7">
-        <v>8.827142957894116</v>
+        <v>13.6292775638601</v>
       </c>
       <c r="F7">
-        <v>24.86592722368625</v>
+        <v>36.33663867249508</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.156413051780342</v>
+        <v>10.35934464322507</v>
       </c>
       <c r="K7">
-        <v>9.988434291384124</v>
+        <v>9.311056773591835</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.1528042534201</v>
+        <v>14.93647080431492</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.49275454996507</v>
+        <v>27.77518199029946</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.20458338788538</v>
+        <v>10.10015277305878</v>
       </c>
       <c r="C8">
-        <v>6.548111013850008</v>
+        <v>4.291058831483331</v>
       </c>
       <c r="D8">
-        <v>6.177848156967241</v>
+        <v>8.620326945907603</v>
       </c>
       <c r="E8">
-        <v>9.091763893006283</v>
+        <v>13.63096470493361</v>
       </c>
       <c r="F8">
-        <v>25.09520596398136</v>
+        <v>36.2359937293227</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.142365618951522</v>
+        <v>10.33144439581676</v>
       </c>
       <c r="K8">
-        <v>10.80543979974303</v>
+        <v>9.510498130960791</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.7449451842042</v>
+        <v>15.00630247138898</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.43269203963465</v>
+        <v>27.66391489844217</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.08329870521286</v>
+        <v>10.68505201329494</v>
       </c>
       <c r="C9">
-        <v>7.211833019329666</v>
+        <v>4.636682066171032</v>
       </c>
       <c r="D9">
-        <v>6.802789144346661</v>
+        <v>8.705985580189003</v>
       </c>
       <c r="E9">
-        <v>9.626655328681707</v>
+        <v>13.65219697096641</v>
       </c>
       <c r="F9">
-        <v>25.70099258880487</v>
+        <v>36.09974565224474</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.13578918112284</v>
+        <v>10.28599846796049</v>
       </c>
       <c r="K9">
-        <v>12.25048494610102</v>
+        <v>9.900883870613864</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.85020932490015</v>
+        <v>15.16029985778434</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.43186441832697</v>
+        <v>27.48753658605562</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.32628848652709</v>
+        <v>11.10260869652089</v>
       </c>
       <c r="C10">
-        <v>7.663690600392227</v>
+        <v>4.871874571669962</v>
       </c>
       <c r="D10">
-        <v>7.239287142151962</v>
+        <v>8.774626225823971</v>
       </c>
       <c r="E10">
-        <v>10.02618110812105</v>
+        <v>13.67860724859336</v>
       </c>
       <c r="F10">
-        <v>26.24660863867466</v>
+        <v>36.03704875132544</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.1446554208653</v>
+        <v>10.2582408680765</v>
       </c>
       <c r="K10">
-        <v>13.21545213641034</v>
+        <v>10.18450724213172</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.66282497627215</v>
+        <v>15.28320591447971</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.51077498083276</v>
+        <v>27.38355434984815</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.8625146535679</v>
+        <v>11.28901741444841</v>
       </c>
       <c r="C11">
-        <v>7.861165827920566</v>
+        <v>4.974512900817038</v>
       </c>
       <c r="D11">
-        <v>7.432289345271906</v>
+        <v>8.807010973570224</v>
       </c>
       <c r="E11">
-        <v>10.20874117595456</v>
+        <v>13.69293948522035</v>
       </c>
       <c r="F11">
-        <v>26.51761259553484</v>
+        <v>36.01667000668041</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.151866387045884</v>
+        <v>10.2468322349153</v>
       </c>
       <c r="K11">
-        <v>13.63345194766307</v>
+        <v>10.31228527292691</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.09273109574936</v>
+        <v>15.34109378105425</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.56570953599109</v>
+        <v>27.34183146054829</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.06141786093716</v>
+        <v>11.35902794234378</v>
       </c>
       <c r="C12">
-        <v>7.934764902632573</v>
+        <v>5.012733402440536</v>
       </c>
       <c r="D12">
-        <v>7.504532045671349</v>
+        <v>8.819433755927758</v>
       </c>
       <c r="E12">
-        <v>10.27794293799572</v>
+        <v>13.69869705613013</v>
       </c>
       <c r="F12">
-        <v>26.6235798397456</v>
+        <v>36.01012481943762</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.15507110470961</v>
+        <v>10.24268697846641</v>
       </c>
       <c r="K12">
-        <v>13.78873272099844</v>
+        <v>10.36044858737735</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.25233811626704</v>
+        <v>15.36328573881586</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.58939439078315</v>
+        <v>27.32683601417276</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.01876446449468</v>
+        <v>11.34397669593837</v>
       </c>
       <c r="C13">
-        <v>7.918966770537084</v>
+        <v>5.004530982570095</v>
       </c>
       <c r="D13">
-        <v>7.489011379098605</v>
+        <v>8.816751319081956</v>
       </c>
       <c r="E13">
-        <v>10.26303666981548</v>
+        <v>13.69744242336727</v>
       </c>
       <c r="F13">
-        <v>26.60060820002429</v>
+        <v>36.01148231738255</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.154359548742808</v>
+        <v>10.24357195716825</v>
       </c>
       <c r="K13">
-        <v>13.75542374149277</v>
+        <v>10.35008638274634</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.21810519683844</v>
+        <v>15.35849446245187</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.58416294174237</v>
+        <v>27.33002976113052</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.87896151197871</v>
+        <v>11.29478919350357</v>
       </c>
       <c r="C14">
-        <v>7.867244615822965</v>
+        <v>4.97767038800917</v>
       </c>
       <c r="D14">
-        <v>7.438249908511331</v>
+        <v>8.808029852268898</v>
       </c>
       <c r="E14">
-        <v>10.21443328975492</v>
+        <v>13.69340656359731</v>
       </c>
       <c r="F14">
-        <v>26.52626321485914</v>
+        <v>36.01610804213607</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.152120440009077</v>
+        <v>10.24648769755085</v>
       </c>
       <c r="K14">
-        <v>13.6462871751287</v>
+        <v>10.31625242446056</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.10592578692068</v>
+        <v>15.34291417123236</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.56759950974069</v>
+        <v>27.34058165060171</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79278864287862</v>
+        <v>11.26458313325079</v>
       </c>
       <c r="C15">
-        <v>7.835409099127498</v>
+        <v>4.96113275108816</v>
       </c>
       <c r="D15">
-        <v>7.407046117807571</v>
+        <v>8.802708234843015</v>
       </c>
       <c r="E15">
-        <v>10.18467015597746</v>
+        <v>13.69097739738849</v>
       </c>
       <c r="F15">
-        <v>26.48116207550098</v>
+        <v>36.01909405363033</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.15081117704301</v>
+        <v>10.24829644778464</v>
       </c>
       <c r="K15">
-        <v>13.57904669068095</v>
+        <v>10.29549775832889</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.03679831702969</v>
+        <v>15.33340569552178</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.55783358146873</v>
+        <v>27.34714975825466</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.290660916023</v>
+        <v>11.09034916586432</v>
       </c>
       <c r="C16">
-        <v>7.650620838130609</v>
+        <v>4.865077520724693</v>
       </c>
       <c r="D16">
-        <v>7.226558174310063</v>
+        <v>8.772532517367873</v>
       </c>
       <c r="E16">
-        <v>10.01426264406002</v>
+        <v>13.67771699220091</v>
       </c>
       <c r="F16">
-        <v>26.22936241786271</v>
+        <v>36.03854448831281</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.144249564688926</v>
+        <v>10.25901094473577</v>
       </c>
       <c r="K16">
-        <v>13.18771349655602</v>
+        <v>10.17612776209553</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.634281582694</v>
+        <v>15.27946147051788</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.50758034797204</v>
+        <v>27.38639346482502</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.97517158632622</v>
+        <v>10.98250458335516</v>
       </c>
       <c r="C17">
-        <v>7.535175080765474</v>
+        <v>4.805020591414053</v>
       </c>
       <c r="D17">
-        <v>7.114376464479158</v>
+        <v>8.754312552865448</v>
       </c>
       <c r="E17">
-        <v>9.909896787545817</v>
+        <v>13.6701737752732</v>
       </c>
       <c r="F17">
-        <v>26.08077971035206</v>
+        <v>36.05256299944553</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.141050157388127</v>
+        <v>10.26589582702955</v>
       </c>
       <c r="K17">
-        <v>12.94227654025848</v>
+        <v>10.10254723044542</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.40063812458387</v>
+        <v>15.24686556467198</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.48173074037705</v>
+        <v>27.41189850271033</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.79095750451913</v>
+        <v>10.92014585289786</v>
       </c>
       <c r="C18">
-        <v>7.468014230832129</v>
+        <v>4.770068861941536</v>
       </c>
       <c r="D18">
-        <v>7.049330911479601</v>
+        <v>8.743942532575407</v>
       </c>
       <c r="E18">
-        <v>9.849947420648727</v>
+        <v>13.66605350477998</v>
       </c>
       <c r="F18">
-        <v>25.99746151450886</v>
+        <v>36.06139245471559</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.139507989358643</v>
+        <v>10.26997053070475</v>
       </c>
       <c r="K18">
-        <v>12.79913303918821</v>
+        <v>10.06011114236024</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.28575894383747</v>
+        <v>15.22830419283092</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.46864601550892</v>
+        <v>27.42709335984725</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.72811156440939</v>
+        <v>10.8989778871836</v>
       </c>
       <c r="C19">
-        <v>7.445144951735569</v>
+        <v>4.758165306472612</v>
       </c>
       <c r="D19">
-        <v>7.027219473381233</v>
+        <v>8.740450470875114</v>
       </c>
       <c r="E19">
-        <v>9.829664686795173</v>
+        <v>13.6646960496291</v>
       </c>
       <c r="F19">
-        <v>25.96961731375821</v>
+        <v>36.06451354542014</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.139036512663671</v>
+        <v>10.27136986338278</v>
       </c>
       <c r="K19">
-        <v>12.75032781469018</v>
+        <v>10.04572473652999</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.24670432152146</v>
+        <v>15.22205213408512</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.4645176168822</v>
+        <v>27.43232819476689</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00904055203898</v>
+        <v>10.99401943199578</v>
       </c>
       <c r="C20">
-        <v>7.547543240815576</v>
+        <v>4.811456197522748</v>
       </c>
       <c r="D20">
-        <v>7.126372721932109</v>
+        <v>8.756240806610434</v>
       </c>
       <c r="E20">
-        <v>9.920998877517331</v>
+        <v>13.67095418262678</v>
       </c>
       <c r="F20">
-        <v>26.09637434490296</v>
+        <v>36.05099137918276</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.141359770395297</v>
+        <v>10.26515105027477</v>
       </c>
       <c r="K20">
-        <v>12.96860805255065</v>
+        <v>10.11039218480734</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.42182380823221</v>
+        <v>15.25031620257186</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.48429686220559</v>
+        <v>27.40912909518138</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.9201373760037</v>
+        <v>11.30925297986335</v>
       </c>
       <c r="C21">
-        <v>7.88246882826098</v>
+        <v>4.985577690056044</v>
       </c>
       <c r="D21">
-        <v>7.453182964608073</v>
+        <v>8.810587292969268</v>
       </c>
       <c r="E21">
-        <v>10.22870772337693</v>
+        <v>13.69458305596584</v>
       </c>
       <c r="F21">
-        <v>26.54800889577394</v>
+        <v>36.01471754756026</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.152765115241791</v>
+        <v>10.24562652810386</v>
       </c>
       <c r="K21">
-        <v>13.67842472815888</v>
+        <v>10.32619668810456</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.13896188740835</v>
+        <v>15.34748323096334</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.57238521453911</v>
+        <v>27.33746046767083</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.49140302634408</v>
+        <v>11.51187645310356</v>
       </c>
       <c r="C22">
-        <v>8.094476286201852</v>
+        <v>5.095600668218506</v>
       </c>
       <c r="D22">
-        <v>7.661844257307878</v>
+        <v>8.847031274620591</v>
       </c>
       <c r="E22">
-        <v>10.43020443757928</v>
+        <v>13.71194931071961</v>
       </c>
       <c r="F22">
-        <v>26.86269553609486</v>
+        <v>35.99784070020738</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.162990766055763</v>
+        <v>10.23388571106598</v>
       </c>
       <c r="K22">
-        <v>14.12481440733746</v>
+        <v>10.46591571661016</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.59762657468211</v>
+        <v>15.41256114609169</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.64682324302341</v>
+        <v>27.29530858694944</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.18870473377088</v>
+        <v>11.40406513968334</v>
       </c>
       <c r="C23">
-        <v>7.981958788577441</v>
+        <v>5.037230922739875</v>
       </c>
       <c r="D23">
-        <v>7.550940809954193</v>
+        <v>8.827498260510385</v>
       </c>
       <c r="E23">
-        <v>10.32264022449444</v>
+        <v>13.7025057036274</v>
       </c>
       <c r="F23">
-        <v>26.69293543148263</v>
+        <v>36.0062230606206</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.157273758439085</v>
+        <v>10.24005880328268</v>
       </c>
       <c r="K23">
-        <v>13.88816601568378</v>
+        <v>10.39148018565432</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.35451679766115</v>
+        <v>15.37768832538335</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.60550323285326</v>
+        <v>27.31737633956308</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.99373722677274</v>
+        <v>10.98881467695243</v>
       </c>
       <c r="C24">
-        <v>7.541954053408398</v>
+        <v>4.808547979723423</v>
       </c>
       <c r="D24">
-        <v>7.12095092617375</v>
+        <v>8.755368715856321</v>
       </c>
       <c r="E24">
-        <v>9.915979457204218</v>
+        <v>13.67060068609868</v>
       </c>
       <c r="F24">
-        <v>26.08931746218792</v>
+        <v>36.05169951017774</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.141218869891547</v>
+        <v>10.26548740095924</v>
       </c>
       <c r="K24">
-        <v>12.95670992596656</v>
+        <v>10.10684589384438</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.4122488339405</v>
+        <v>15.24875561232817</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.48313119591127</v>
+        <v>27.41037948831603</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.59935119558694</v>
+        <v>10.52863372414443</v>
       </c>
       <c r="C25">
-        <v>7.038431073072153</v>
+        <v>4.546364004596921</v>
       </c>
       <c r="D25">
-        <v>6.63744833218218</v>
+        <v>8.681783727214937</v>
       </c>
       <c r="E25">
-        <v>9.480582937764764</v>
+        <v>13.64454513077241</v>
       </c>
       <c r="F25">
-        <v>25.5198040570815</v>
+        <v>36.13004440825696</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.135230061751876</v>
+        <v>10.29730255044693</v>
       </c>
       <c r="K25">
-        <v>11.87651845680901</v>
+        <v>9.795640552352998</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.55798247778348</v>
+        <v>15.11687678985123</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.41872104384434</v>
+        <v>27.53076307467229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.18201399862603</v>
+        <v>12.48023438583533</v>
       </c>
       <c r="C2">
-        <v>4.3408564290895</v>
+        <v>6.643798747138809</v>
       </c>
       <c r="D2">
-        <v>8.631474025476173</v>
+        <v>6.266519155360455</v>
       </c>
       <c r="E2">
-        <v>13.63263849530772</v>
+        <v>9.164667568727719</v>
       </c>
       <c r="F2">
-        <v>36.21285343707817</v>
+        <v>25.16767714779252</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.32451255953212</v>
+        <v>6.139945373440693</v>
       </c>
       <c r="K2">
-        <v>9.564593265398411</v>
+        <v>11.01623659011833</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.0264000258118</v>
+        <v>10.90190364119377</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.63659263531565</v>
+        <v>18.42402929797662</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.943804821937418</v>
+        <v>11.66334240579975</v>
       </c>
       <c r="C3">
-        <v>4.194357348631359</v>
+        <v>6.362172229332814</v>
       </c>
       <c r="D3">
-        <v>8.59990821162177</v>
+        <v>6.007161498835134</v>
       </c>
       <c r="E3">
-        <v>13.62914680221794</v>
+        <v>8.954530643415042</v>
       </c>
       <c r="F3">
-        <v>36.28459783135221</v>
+        <v>24.96919026071962</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.34531993874208</v>
+        <v>6.148531247370389</v>
       </c>
       <c r="K3">
-        <v>9.407726021104821</v>
+        <v>10.39299231659392</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.96942325103575</v>
+        <v>10.44264825162881</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.71900279472625</v>
+        <v>18.4578049539625</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.79648155703935</v>
+        <v>11.13270544821365</v>
       </c>
       <c r="C4">
-        <v>4.101062199758081</v>
+        <v>6.182580597127138</v>
       </c>
       <c r="D4">
-        <v>8.581810633105521</v>
+        <v>5.844535169207141</v>
       </c>
       <c r="E4">
-        <v>13.62927148237973</v>
+        <v>8.827833267890171</v>
       </c>
       <c r="F4">
-        <v>36.33633611243476</v>
+        <v>24.86644736257022</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.35926522512722</v>
+        <v>6.156364042249164</v>
       </c>
       <c r="K4">
-        <v>9.311584336855459</v>
+        <v>9.990691446946485</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.93664562874706</v>
+        <v>10.15440192382214</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.77486253062047</v>
+        <v>18.4925315769447</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.736269120299125</v>
+        <v>10.90913043300527</v>
       </c>
       <c r="C5">
-        <v>4.062240146958568</v>
+        <v>6.10777669990996</v>
       </c>
       <c r="D5">
-        <v>8.574763920545768</v>
+        <v>5.777509815281057</v>
       </c>
       <c r="E5">
-        <v>13.62989428276139</v>
+        <v>8.776846189478151</v>
       </c>
       <c r="F5">
-        <v>36.35934970794551</v>
+        <v>24.82927965099227</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.36524240525651</v>
+        <v>6.160185748661899</v>
       </c>
       <c r="K5">
-        <v>9.272498714816161</v>
+        <v>9.821864110250523</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.92385294399508</v>
+        <v>10.03553073028193</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.79894645412401</v>
+        <v>18.51006833114009</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.72626289611234</v>
+        <v>10.8715621511276</v>
       </c>
       <c r="C6">
-        <v>4.055746414388293</v>
+        <v>6.095259704243823</v>
       </c>
       <c r="D6">
-        <v>8.573613790983476</v>
+        <v>5.766337810164305</v>
       </c>
       <c r="E6">
-        <v>13.63003228520347</v>
+        <v>8.768420355813468</v>
       </c>
       <c r="F6">
-        <v>36.36328755531137</v>
+        <v>24.82338851715039</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.3662526986388</v>
+        <v>6.160857965662592</v>
       </c>
       <c r="K6">
-        <v>9.266015621596258</v>
+        <v>9.793537074493623</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.92176309133654</v>
+        <v>10.01571245273603</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.80302527584571</v>
+        <v>18.51318092916981</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.795670106359005</v>
+        <v>11.12971997541003</v>
       </c>
       <c r="C7">
-        <v>4.10054183309964</v>
+        <v>6.181578235480224</v>
       </c>
       <c r="D7">
-        <v>8.581714263008626</v>
+        <v>5.84363415861426</v>
       </c>
       <c r="E7">
-        <v>13.6292775638601</v>
+        <v>8.827142957894086</v>
       </c>
       <c r="F7">
-        <v>36.33663867249508</v>
+        <v>24.8659272236861</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.35934464322507</v>
+        <v>6.156413051780345</v>
       </c>
       <c r="K7">
-        <v>9.311056773591835</v>
+        <v>9.988434291384127</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.93647080431492</v>
+        <v>10.15280425342007</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.77518199029946</v>
+        <v>18.49275454996492</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.10015277305878</v>
+        <v>12.20458338788544</v>
       </c>
       <c r="C8">
-        <v>4.291058831483331</v>
+        <v>6.548111013849931</v>
       </c>
       <c r="D8">
-        <v>8.620326945907603</v>
+        <v>6.177848156967196</v>
       </c>
       <c r="E8">
-        <v>13.63096470493361</v>
+        <v>9.09176389300616</v>
       </c>
       <c r="F8">
-        <v>36.2359937293227</v>
+        <v>25.09520596398103</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.33144439581676</v>
+        <v>6.142365618951526</v>
       </c>
       <c r="K8">
-        <v>9.510498130960791</v>
+        <v>10.80543979974307</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.00630247138898</v>
+        <v>10.74494518420415</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.66391489844217</v>
+        <v>18.43269203963444</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.68505201329494</v>
+        <v>14.08329870521284</v>
       </c>
       <c r="C9">
-        <v>4.636682066171032</v>
+        <v>7.211833019329752</v>
       </c>
       <c r="D9">
-        <v>8.705985580189003</v>
+        <v>6.802789144346703</v>
       </c>
       <c r="E9">
-        <v>13.65219697096641</v>
+        <v>9.626655328681712</v>
       </c>
       <c r="F9">
-        <v>36.09974565224474</v>
+        <v>25.70099258880476</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.28599846796049</v>
+        <v>6.135789181122784</v>
       </c>
       <c r="K9">
-        <v>9.900883870613864</v>
+        <v>12.25048494610106</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.16029985778434</v>
+        <v>11.85020932490014</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.48753658605562</v>
+        <v>18.43186441832683</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.10260869652089</v>
+        <v>15.32628848652719</v>
       </c>
       <c r="C10">
-        <v>4.871874571669962</v>
+        <v>7.663690600392161</v>
       </c>
       <c r="D10">
-        <v>8.774626225823971</v>
+        <v>7.239287142151889</v>
       </c>
       <c r="E10">
-        <v>13.67860724859336</v>
+        <v>10.02618110812096</v>
       </c>
       <c r="F10">
-        <v>36.03704875132544</v>
+        <v>26.24660863867433</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.2582408680765</v>
+        <v>6.144655420865278</v>
       </c>
       <c r="K10">
-        <v>10.18450724213172</v>
+        <v>13.21545213641044</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.28320591447971</v>
+        <v>12.66282497627224</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.38355434984815</v>
+        <v>18.51077498083252</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.28901741444841</v>
+        <v>15.86251465356793</v>
       </c>
       <c r="C11">
-        <v>4.974512900817038</v>
+        <v>7.861165827920659</v>
       </c>
       <c r="D11">
-        <v>8.807010973570224</v>
+        <v>7.432289345271897</v>
       </c>
       <c r="E11">
-        <v>13.69293948522035</v>
+        <v>10.20874117595459</v>
       </c>
       <c r="F11">
-        <v>36.01667000668041</v>
+        <v>26.51761259553474</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.2468322349153</v>
+        <v>6.151866387045943</v>
       </c>
       <c r="K11">
-        <v>10.31228527292691</v>
+        <v>13.63345194766315</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.34109378105425</v>
+        <v>13.09273109574938</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.34183146054829</v>
+        <v>18.56570953599097</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.35902794234378</v>
+        <v>16.06141786093723</v>
       </c>
       <c r="C12">
-        <v>5.012733402440536</v>
+        <v>7.934764902632575</v>
       </c>
       <c r="D12">
-        <v>8.819433755927758</v>
+        <v>7.504532045671297</v>
       </c>
       <c r="E12">
-        <v>13.69869705613013</v>
+        <v>10.27794293799572</v>
       </c>
       <c r="F12">
-        <v>36.01012481943762</v>
+        <v>26.62357983974525</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.24268697846641</v>
+        <v>6.155071104709623</v>
       </c>
       <c r="K12">
-        <v>10.36044858737735</v>
+        <v>13.78873272099849</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.36328573881586</v>
+        <v>13.25233811626709</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.32683601417276</v>
+        <v>18.58939439078287</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.34397669593837</v>
+        <v>16.0187644644947</v>
       </c>
       <c r="C13">
-        <v>5.004530982570095</v>
+        <v>7.918966770537161</v>
       </c>
       <c r="D13">
-        <v>8.816751319081956</v>
+        <v>7.489011379098613</v>
       </c>
       <c r="E13">
-        <v>13.69744242336727</v>
+        <v>10.26303666981542</v>
       </c>
       <c r="F13">
-        <v>36.01148231738255</v>
+        <v>26.60060820002424</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.24357195716825</v>
+        <v>6.154359548742709</v>
       </c>
       <c r="K13">
-        <v>10.35008638274634</v>
+        <v>13.75542374149281</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.35849446245187</v>
+        <v>13.21810519683848</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.33002976113052</v>
+        <v>18.58416294174234</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.29478919350357</v>
+        <v>15.87896151197868</v>
       </c>
       <c r="C14">
-        <v>4.97767038800917</v>
+        <v>7.867244615822952</v>
       </c>
       <c r="D14">
-        <v>8.808029852268898</v>
+        <v>7.438249908511331</v>
       </c>
       <c r="E14">
-        <v>13.69340656359731</v>
+        <v>10.21443328975492</v>
       </c>
       <c r="F14">
-        <v>36.01610804213607</v>
+        <v>26.52626321485913</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.24648769755085</v>
+        <v>6.152120440009078</v>
       </c>
       <c r="K14">
-        <v>10.31625242446056</v>
+        <v>13.64628717512866</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.34291417123236</v>
+        <v>13.10592578692066</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.34058165060171</v>
+        <v>18.56759950974068</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.26458313325079</v>
+        <v>15.79278864287861</v>
       </c>
       <c r="C15">
-        <v>4.96113275108816</v>
+        <v>7.835409099127301</v>
       </c>
       <c r="D15">
-        <v>8.802708234843015</v>
+        <v>7.407046117807541</v>
       </c>
       <c r="E15">
-        <v>13.69097739738849</v>
+        <v>10.18467015597744</v>
       </c>
       <c r="F15">
-        <v>36.01909405363033</v>
+        <v>26.48116207550092</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.24829644778464</v>
+        <v>6.15081117704298</v>
       </c>
       <c r="K15">
-        <v>10.29549775832889</v>
+        <v>13.57904669068094</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.33340569552178</v>
+        <v>13.03679831702966</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.34714975825466</v>
+        <v>18.55783358146867</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.09034916586432</v>
+        <v>15.29066091602301</v>
       </c>
       <c r="C16">
-        <v>4.865077520724693</v>
+        <v>7.650620838130676</v>
       </c>
       <c r="D16">
-        <v>8.772532517367873</v>
+        <v>7.226558174310087</v>
       </c>
       <c r="E16">
-        <v>13.67771699220091</v>
+        <v>10.01426264406003</v>
       </c>
       <c r="F16">
-        <v>36.03854448831281</v>
+        <v>26.22936241786262</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.25901094473577</v>
+        <v>6.144249564688875</v>
       </c>
       <c r="K16">
-        <v>10.17612776209553</v>
+        <v>13.18771349655607</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.27946147051788</v>
+        <v>12.63428158269405</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.38639346482502</v>
+        <v>18.50758034797193</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.98250458335516</v>
+        <v>14.97517158632631</v>
       </c>
       <c r="C17">
-        <v>4.805020591414053</v>
+        <v>7.535175080765545</v>
       </c>
       <c r="D17">
-        <v>8.754312552865448</v>
+        <v>7.114376464479127</v>
       </c>
       <c r="E17">
-        <v>13.6701737752732</v>
+        <v>9.909896787545788</v>
       </c>
       <c r="F17">
-        <v>36.05256299944553</v>
+        <v>26.08077971035188</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.26589582702955</v>
+        <v>6.14105015738813</v>
       </c>
       <c r="K17">
-        <v>10.10254723044542</v>
+        <v>12.94227654025856</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.24686556467198</v>
+        <v>12.40063812458386</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.41189850271033</v>
+        <v>18.48173074037686</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.92014585289786</v>
+        <v>14.79095750451926</v>
       </c>
       <c r="C18">
-        <v>4.770068861941536</v>
+        <v>7.468014230831925</v>
       </c>
       <c r="D18">
-        <v>8.743942532575407</v>
+        <v>7.049330911479665</v>
       </c>
       <c r="E18">
-        <v>13.66605350477998</v>
+        <v>9.84994742064878</v>
       </c>
       <c r="F18">
-        <v>36.06139245471559</v>
+        <v>25.99746151450888</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.26997053070475</v>
+        <v>6.139507989358653</v>
       </c>
       <c r="K18">
-        <v>10.06011114236024</v>
+        <v>12.79913303918825</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.22830419283092</v>
+        <v>12.28575894383747</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.42709335984725</v>
+        <v>18.46864601550888</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.8989778871836</v>
+        <v>14.72811156440932</v>
       </c>
       <c r="C19">
-        <v>4.758165306472612</v>
+        <v>7.445144951735378</v>
       </c>
       <c r="D19">
-        <v>8.740450470875114</v>
+        <v>7.027219473381203</v>
       </c>
       <c r="E19">
-        <v>13.6646960496291</v>
+        <v>9.829664686795111</v>
       </c>
       <c r="F19">
-        <v>36.06451354542014</v>
+        <v>25.96961731375823</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.27136986338278</v>
+        <v>6.139036512663639</v>
       </c>
       <c r="K19">
-        <v>10.04572473652999</v>
+        <v>12.75032781469007</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.22205213408512</v>
+        <v>12.24670432152147</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.43232819476689</v>
+        <v>18.46451761688226</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.99401943199578</v>
+        <v>15.009040552039</v>
       </c>
       <c r="C20">
-        <v>4.811456197522748</v>
+        <v>7.547543240815738</v>
       </c>
       <c r="D20">
-        <v>8.756240806610434</v>
+        <v>7.126372721932099</v>
       </c>
       <c r="E20">
-        <v>13.67095418262678</v>
+        <v>9.920998877517304</v>
       </c>
       <c r="F20">
-        <v>36.05099137918276</v>
+        <v>26.09637434490284</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.26515105027477</v>
+        <v>6.141359770395301</v>
       </c>
       <c r="K20">
-        <v>10.11039218480734</v>
+        <v>12.9686080525507</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.25031620257186</v>
+        <v>12.42182380823218</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.40912909518138</v>
+        <v>18.4842968622055</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.30925297986335</v>
+        <v>15.92013737600368</v>
       </c>
       <c r="C21">
-        <v>4.985577690056044</v>
+        <v>7.882468828260886</v>
       </c>
       <c r="D21">
-        <v>8.810587292969268</v>
+        <v>7.453182964608109</v>
       </c>
       <c r="E21">
-        <v>13.69458305596584</v>
+        <v>10.22870772337697</v>
       </c>
       <c r="F21">
-        <v>36.01471754756026</v>
+        <v>26.54800889577405</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.24562652810386</v>
+        <v>6.152765115241808</v>
       </c>
       <c r="K21">
-        <v>10.32619668810456</v>
+        <v>13.67842472815885</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.34748323096334</v>
+        <v>13.13896188740829</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.33746046767083</v>
+        <v>18.57238521453917</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.51187645310356</v>
+        <v>16.49140302634409</v>
       </c>
       <c r="C22">
-        <v>5.095600668218506</v>
+        <v>8.094476286202074</v>
       </c>
       <c r="D22">
-        <v>8.847031274620591</v>
+        <v>7.661844257307903</v>
       </c>
       <c r="E22">
-        <v>13.71194931071961</v>
+        <v>10.43020443757931</v>
       </c>
       <c r="F22">
-        <v>35.99784070020738</v>
+        <v>26.86269553609477</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.23388571106598</v>
+        <v>6.162990766055749</v>
       </c>
       <c r="K22">
-        <v>10.46591571661016</v>
+        <v>14.12481440733753</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.41256114609169</v>
+        <v>13.59762657468215</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.29530858694944</v>
+        <v>18.6468232430233</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.40406513968334</v>
+        <v>16.18870473377089</v>
       </c>
       <c r="C23">
-        <v>5.037230922739875</v>
+        <v>7.981958788577244</v>
       </c>
       <c r="D23">
-        <v>8.827498260510385</v>
+        <v>7.550940809954169</v>
       </c>
       <c r="E23">
-        <v>13.7025057036274</v>
+        <v>10.3226402244944</v>
       </c>
       <c r="F23">
-        <v>36.0062230606206</v>
+        <v>26.69293543148271</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.24005880328268</v>
+        <v>6.157273758439033</v>
       </c>
       <c r="K23">
-        <v>10.39148018565432</v>
+        <v>13.88816601568376</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.37768832538335</v>
+        <v>13.35451679766114</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.31737633956308</v>
+        <v>18.60550323285333</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.98881467695243</v>
+        <v>14.99373722677274</v>
       </c>
       <c r="C24">
-        <v>4.808547979723423</v>
+        <v>7.541954053408478</v>
       </c>
       <c r="D24">
-        <v>8.755368715856321</v>
+        <v>7.120950926173693</v>
       </c>
       <c r="E24">
-        <v>13.67060068609868</v>
+        <v>9.915979457204175</v>
       </c>
       <c r="F24">
-        <v>36.05169951017774</v>
+        <v>26.08931746218787</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.26548740095924</v>
+        <v>6.141218869891547</v>
       </c>
       <c r="K24">
-        <v>10.10684589384438</v>
+        <v>12.9567099259666</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.24875561232817</v>
+        <v>12.41224883394047</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.41037948831603</v>
+        <v>18.48313119591126</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.52863372414443</v>
+        <v>13.59935119558693</v>
       </c>
       <c r="C25">
-        <v>4.546364004596921</v>
+        <v>7.038431073072079</v>
       </c>
       <c r="D25">
-        <v>8.681783727214937</v>
+        <v>6.637448332182289</v>
       </c>
       <c r="E25">
-        <v>13.64454513077241</v>
+        <v>9.480582937764805</v>
       </c>
       <c r="F25">
-        <v>36.13004440825696</v>
+        <v>25.51980405708133</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.29730255044693</v>
+        <v>6.135230061751879</v>
       </c>
       <c r="K25">
-        <v>9.795640552352998</v>
+        <v>11.87651845680902</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.11687678985123</v>
+        <v>11.55798247778349</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.53076307467229</v>
+        <v>18.41872104384414</v>
       </c>
     </row>
   </sheetData>
